--- a/biology/Botanique/Jardin_Ilan-Halimi/Jardin_Ilan-Halimi.xlsx
+++ b/biology/Botanique/Jardin_Ilan-Halimi/Jardin_Ilan-Halimi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin Ilan-Halimi, anciennement jardin 54, rue de Fécamp, est un espace vert du 12e arrondissement de Paris, en France.
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le site est accessible par le 54, rue de Fécamp et par le 65, avenue du Général-Michel-Bizot.
 Il est desservi par la ligne de métro 8 à la station Michel Bizot ainsi que par la ligne de tramway T3a à la station Porte Dorée.
@@ -544,9 +558,11 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il rend hommage à Ilan Halimi (1982-2006), un jeune Parisien juif torturé à mort en 2006 par le gang des barbares. Ilan, enfant, venait jouer dans ce jardin[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il rend hommage à Ilan Halimi (1982-2006), un jeune Parisien juif torturé à mort en 2006 par le gang des barbares. Ilan, enfant, venait jouer dans ce jardin.
 </t>
         </is>
       </c>
@@ -575,11 +591,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin public est créé en 1975 sous le nom de « jardin de la rue de Fécamp » en raison de sa localisation.  
 Il a pris le nom de « jardin Ilan-Halimi » en 2011.
-Le maire de Paris Bertrand Delanoë a inauguré le jardin avec ce nouveau nom le 2 mai 2011[1].
+Le maire de Paris Bertrand Delanoë a inauguré le jardin avec ce nouveau nom le 2 mai 2011.
 			Entrée du jardin, rue de Fécamp.
 			Plaque du jardin Ilan-Halimi.
 </t>
